--- a/Input/560120.xlsx
+++ b/Input/560120.xlsx
@@ -12,56 +12,56 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A108267356A">Data1!$K$1:$K$10,Data1!$K$215:$K$243</definedName>
-    <definedName name="A108267356A_Data">Data1!$K$215:$K$243</definedName>
-    <definedName name="A108267356A_Latest">Data1!$K$243</definedName>
-    <definedName name="A108267357C">Data1!$C$1:$C$10,Data1!$C$215:$C$243</definedName>
-    <definedName name="A108267357C_Data">Data1!$C$215:$C$243</definedName>
-    <definedName name="A108267357C_Latest">Data1!$C$243</definedName>
-    <definedName name="A108271878L">Data1!$P$1:$P$10,Data1!$P$11:$P$243</definedName>
-    <definedName name="A108271878L_Data">Data1!$P$11:$P$243</definedName>
-    <definedName name="A108271878L_Latest">Data1!$P$243</definedName>
-    <definedName name="A108271879R">Data1!$H$1:$H$10,Data1!$H$215:$H$243</definedName>
-    <definedName name="A108271879R_Data">Data1!$H$215:$H$243</definedName>
-    <definedName name="A108271879R_Latest">Data1!$H$243</definedName>
-    <definedName name="A108272067A">Data1!$L$1:$L$10,Data1!$L$215:$L$243</definedName>
-    <definedName name="A108272067A_Data">Data1!$L$215:$L$243</definedName>
-    <definedName name="A108272067A_Latest">Data1!$L$243</definedName>
-    <definedName name="A108272068C">Data1!$D$1:$D$10,Data1!$D$215:$D$243</definedName>
-    <definedName name="A108272068C_Data">Data1!$D$215:$D$243</definedName>
-    <definedName name="A108272068C_Latest">Data1!$D$243</definedName>
-    <definedName name="A108276596F">Data1!$Q$1:$Q$10,Data1!$Q$215:$Q$243</definedName>
-    <definedName name="A108276596F_Data">Data1!$Q$215:$Q$243</definedName>
-    <definedName name="A108276596F_Latest">Data1!$Q$243</definedName>
-    <definedName name="A108276597J">Data1!$I$1:$I$10,Data1!$I$215:$I$243</definedName>
-    <definedName name="A108276597J_Data">Data1!$I$215:$I$243</definedName>
-    <definedName name="A108276597J_Latest">Data1!$I$243</definedName>
-    <definedName name="A108281118J">Data1!$N$1:$N$10,Data1!$N$215:$N$243</definedName>
-    <definedName name="A108281118J_Data">Data1!$N$215:$N$243</definedName>
-    <definedName name="A108281118J_Latest">Data1!$N$243</definedName>
-    <definedName name="A108281119K">Data1!$F$1:$F$10,Data1!$F$215:$F$243</definedName>
-    <definedName name="A108281119K_Data">Data1!$F$215:$F$243</definedName>
-    <definedName name="A108281119K_Latest">Data1!$F$243</definedName>
-    <definedName name="A108290036W">Data1!$O$1:$O$10,Data1!$O$215:$O$243</definedName>
-    <definedName name="A108290036W_Data">Data1!$O$215:$O$243</definedName>
-    <definedName name="A108290036W_Latest">Data1!$O$243</definedName>
-    <definedName name="A108290037X">Data1!$G$1:$G$10,Data1!$G$215:$G$243</definedName>
-    <definedName name="A108290037X_Data">Data1!$G$215:$G$243</definedName>
-    <definedName name="A108290037X_Latest">Data1!$G$243</definedName>
-    <definedName name="A108290197K">Data1!$M$1:$M$10,Data1!$M$215:$M$243</definedName>
-    <definedName name="A108290197K_Data">Data1!$M$215:$M$243</definedName>
-    <definedName name="A108290197K_Latest">Data1!$M$243</definedName>
-    <definedName name="A108290198L">Data1!$E$1:$E$10,Data1!$E$215:$E$243</definedName>
-    <definedName name="A108290198L_Data">Data1!$E$215:$E$243</definedName>
-    <definedName name="A108290198L_Latest">Data1!$E$243</definedName>
-    <definedName name="A108290302A">Data1!$J$1:$J$10,Data1!$J$11:$J$243</definedName>
-    <definedName name="A108290302A_Data">Data1!$J$11:$J$243</definedName>
-    <definedName name="A108290302A_Latest">Data1!$J$243</definedName>
-    <definedName name="A108290303C">Data1!$B$1:$B$10,Data1!$B$215:$B$243</definedName>
-    <definedName name="A108290303C_Data">Data1!$B$215:$B$243</definedName>
-    <definedName name="A108290303C_Latest">Data1!$B$243</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$243</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$243</definedName>
+    <definedName name="A108267356A">Data1!$K$1:$K$10,Data1!$K$215:$K$245</definedName>
+    <definedName name="A108267356A_Data">Data1!$K$215:$K$245</definedName>
+    <definedName name="A108267356A_Latest">Data1!$K$245</definedName>
+    <definedName name="A108267357C">Data1!$C$1:$C$10,Data1!$C$215:$C$245</definedName>
+    <definedName name="A108267357C_Data">Data1!$C$215:$C$245</definedName>
+    <definedName name="A108267357C_Latest">Data1!$C$245</definedName>
+    <definedName name="A108271878L">Data1!$P$1:$P$10,Data1!$P$11:$P$245</definedName>
+    <definedName name="A108271878L_Data">Data1!$P$11:$P$245</definedName>
+    <definedName name="A108271878L_Latest">Data1!$P$245</definedName>
+    <definedName name="A108271879R">Data1!$H$1:$H$10,Data1!$H$215:$H$245</definedName>
+    <definedName name="A108271879R_Data">Data1!$H$215:$H$245</definedName>
+    <definedName name="A108271879R_Latest">Data1!$H$245</definedName>
+    <definedName name="A108272067A">Data1!$L$1:$L$10,Data1!$L$215:$L$245</definedName>
+    <definedName name="A108272067A_Data">Data1!$L$215:$L$245</definedName>
+    <definedName name="A108272067A_Latest">Data1!$L$245</definedName>
+    <definedName name="A108272068C">Data1!$D$1:$D$10,Data1!$D$215:$D$245</definedName>
+    <definedName name="A108272068C_Data">Data1!$D$215:$D$245</definedName>
+    <definedName name="A108272068C_Latest">Data1!$D$245</definedName>
+    <definedName name="A108276596F">Data1!$Q$1:$Q$10,Data1!$Q$215:$Q$245</definedName>
+    <definedName name="A108276596F_Data">Data1!$Q$215:$Q$245</definedName>
+    <definedName name="A108276596F_Latest">Data1!$Q$245</definedName>
+    <definedName name="A108276597J">Data1!$I$1:$I$10,Data1!$I$215:$I$245</definedName>
+    <definedName name="A108276597J_Data">Data1!$I$215:$I$245</definedName>
+    <definedName name="A108276597J_Latest">Data1!$I$245</definedName>
+    <definedName name="A108281118J">Data1!$N$1:$N$10,Data1!$N$215:$N$245</definedName>
+    <definedName name="A108281118J_Data">Data1!$N$215:$N$245</definedName>
+    <definedName name="A108281118J_Latest">Data1!$N$245</definedName>
+    <definedName name="A108281119K">Data1!$F$1:$F$10,Data1!$F$215:$F$245</definedName>
+    <definedName name="A108281119K_Data">Data1!$F$215:$F$245</definedName>
+    <definedName name="A108281119K_Latest">Data1!$F$245</definedName>
+    <definedName name="A108290036W">Data1!$O$1:$O$10,Data1!$O$215:$O$245</definedName>
+    <definedName name="A108290036W_Data">Data1!$O$215:$O$245</definedName>
+    <definedName name="A108290036W_Latest">Data1!$O$245</definedName>
+    <definedName name="A108290037X">Data1!$G$1:$G$10,Data1!$G$215:$G$245</definedName>
+    <definedName name="A108290037X_Data">Data1!$G$215:$G$245</definedName>
+    <definedName name="A108290037X_Latest">Data1!$G$245</definedName>
+    <definedName name="A108290197K">Data1!$M$1:$M$10,Data1!$M$215:$M$245</definedName>
+    <definedName name="A108290197K_Data">Data1!$M$215:$M$245</definedName>
+    <definedName name="A108290197K_Latest">Data1!$M$245</definedName>
+    <definedName name="A108290198L">Data1!$E$1:$E$10,Data1!$E$215:$E$245</definedName>
+    <definedName name="A108290198L_Data">Data1!$E$215:$E$245</definedName>
+    <definedName name="A108290198L_Latest">Data1!$E$245</definedName>
+    <definedName name="A108290302A">Data1!$J$1:$J$10,Data1!$J$11:$J$245</definedName>
+    <definedName name="A108290302A_Data">Data1!$J$11:$J$245</definedName>
+    <definedName name="A108290302A_Latest">Data1!$J$245</definedName>
+    <definedName name="A108290303C">Data1!$B$1:$B$10,Data1!$B$215:$B$245</definedName>
+    <definedName name="A108290303C_Data">Data1!$B$215:$B$245</definedName>
+    <definedName name="A108290303C_Latest">Data1!$B$245</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$245</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$245</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -387,7 +387,7 @@
     <t>Freq.</t>
   </si>
   <si>
-    <t>© Commonwealth of Australia  2021</t>
+    <t>© Commonwealth of Australia  2022</t>
   </si>
 </sst>
 </file>
@@ -1089,10 +1089,10 @@
         <v>43647</v>
       </c>
       <c r="G12" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H12" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I12" s="11" t="s">
         <v>25</v>
@@ -1121,10 +1121,10 @@
         <v>43647</v>
       </c>
       <c r="G13" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H13" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I13" s="11" t="s">
         <v>25</v>
@@ -1153,10 +1153,10 @@
         <v>43647</v>
       </c>
       <c r="G14" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H14" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I14" s="11" t="s">
         <v>25</v>
@@ -1185,10 +1185,10 @@
         <v>43647</v>
       </c>
       <c r="G15" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H15" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I15" s="11" t="s">
         <v>25</v>
@@ -1217,10 +1217,10 @@
         <v>43647</v>
       </c>
       <c r="G16" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H16" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I16" s="11" t="s">
         <v>25</v>
@@ -1249,10 +1249,10 @@
         <v>43647</v>
       </c>
       <c r="G17" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H17" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I17" s="11" t="s">
         <v>25</v>
@@ -1281,10 +1281,10 @@
         <v>43647</v>
       </c>
       <c r="G18" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H18" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I18" s="11" t="s">
         <v>25</v>
@@ -1313,10 +1313,10 @@
         <v>43647</v>
       </c>
       <c r="G19" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H19" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I19" s="11" t="s">
         <v>25</v>
@@ -1345,10 +1345,10 @@
         <v>37438</v>
       </c>
       <c r="G20" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H20" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I20" s="11" t="s">
         <v>37</v>
@@ -1377,10 +1377,10 @@
         <v>43647</v>
       </c>
       <c r="G21" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H21" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I21" s="11" t="s">
         <v>37</v>
@@ -1409,10 +1409,10 @@
         <v>43647</v>
       </c>
       <c r="G22" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H22" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I22" s="11" t="s">
         <v>37</v>
@@ -1441,10 +1441,10 @@
         <v>43647</v>
       </c>
       <c r="G23" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H23" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I23" s="11" t="s">
         <v>37</v>
@@ -1473,10 +1473,10 @@
         <v>43647</v>
       </c>
       <c r="G24" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H24" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I24" s="11" t="s">
         <v>37</v>
@@ -1505,10 +1505,10 @@
         <v>43647</v>
       </c>
       <c r="G25" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H25" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I25" s="11" t="s">
         <v>37</v>
@@ -1537,10 +1537,10 @@
         <v>37438</v>
       </c>
       <c r="G26" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H26" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I26" s="11" t="s">
         <v>37</v>
@@ -1569,10 +1569,10 @@
         <v>43647</v>
       </c>
       <c r="G27" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H27" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I27" s="11" t="s">
         <v>37</v>
@@ -1623,7 +1623,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q243"/>
+  <dimension ref="A1:Q245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -2010,52 +2010,52 @@
         <v>22</v>
       </c>
       <c r="B8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="C8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="D8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="E8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="F8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="G8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="I8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="J8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="K8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="L8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="M8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="N8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="O8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="P8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="Q8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -2063,52 +2063,52 @@
         <v>23</v>
       </c>
       <c r="B9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -5927,6 +5927,112 @@
       </c>
       <c r="Q243" s="9">
         <v>45.3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A244" s="10">
+        <v>44531</v>
+      </c>
+      <c r="B244" s="8">
+        <v>335</v>
+      </c>
+      <c r="C244" s="8">
+        <v>13</v>
+      </c>
+      <c r="D244" s="8">
+        <v>12</v>
+      </c>
+      <c r="E244" s="8">
+        <v>245</v>
+      </c>
+      <c r="F244" s="8">
+        <v>24</v>
+      </c>
+      <c r="G244" s="8">
+        <v>41</v>
+      </c>
+      <c r="H244" s="8">
+        <v>126</v>
+      </c>
+      <c r="I244" s="8">
+        <v>104</v>
+      </c>
+      <c r="J244" s="9">
+        <v>131.1</v>
+      </c>
+      <c r="K244" s="9">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="L244" s="9">
+        <v>4.8</v>
+      </c>
+      <c r="M244" s="9">
+        <v>106.2</v>
+      </c>
+      <c r="N244" s="9">
+        <v>5.5</v>
+      </c>
+      <c r="O244" s="9">
+        <v>4.5</v>
+      </c>
+      <c r="P244" s="9">
+        <v>44.9</v>
+      </c>
+      <c r="Q244" s="9">
+        <v>38.200000000000003</v>
+      </c>
+    </row>
+    <row r="245" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A245" s="10">
+        <v>44562</v>
+      </c>
+      <c r="B245" s="8">
+        <v>275</v>
+      </c>
+      <c r="C245" s="8">
+        <v>13</v>
+      </c>
+      <c r="D245" s="8">
+        <v>7</v>
+      </c>
+      <c r="E245" s="8">
+        <v>215</v>
+      </c>
+      <c r="F245" s="8">
+        <v>18</v>
+      </c>
+      <c r="G245" s="8">
+        <v>22</v>
+      </c>
+      <c r="H245" s="8">
+        <v>101</v>
+      </c>
+      <c r="I245" s="8">
+        <v>85</v>
+      </c>
+      <c r="J245" s="9">
+        <v>110.7</v>
+      </c>
+      <c r="K245" s="9">
+        <v>6.2</v>
+      </c>
+      <c r="L245" s="9">
+        <v>3.2</v>
+      </c>
+      <c r="M245" s="9">
+        <v>94.3</v>
+      </c>
+      <c r="N245" s="9">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="O245" s="9">
+        <v>2</v>
+      </c>
+      <c r="P245" s="9">
+        <v>32.6</v>
+      </c>
+      <c r="Q245" s="9">
+        <v>30.5</v>
       </c>
     </row>
   </sheetData>
